--- a/Coding/item.xlsx
+++ b/Coding/item.xlsx
@@ -423,10 +423,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -473,10 +473,10 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>dasdf</t>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
       </c>
     </row>

--- a/Coding/item.xlsx
+++ b/Coding/item.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
@@ -492,13 +492,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="16.125" customWidth="1" min="1" max="1"/>
     <col width="7.625" customWidth="1" min="2" max="2"/>
@@ -682,6 +682,7 @@
         </is>
       </c>
     </row>
+    <row r="13"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -694,7 +695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="H4:K5"/>
@@ -702,20 +703,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>마음</t>
-        </is>
-      </c>
-    </row>
+    <row r="1"/>
     <row r="2">
       <c r="A2" t="inlineStr">
-        <is>
-          <t>밥</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>

--- a/Coding/item.xlsx
+++ b/Coding/item.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
@@ -492,13 +492,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
     <col width="16.125" customWidth="1" min="1" max="1"/>
     <col width="7.625" customWidth="1" min="2" max="2"/>
@@ -682,7 +682,6 @@
         </is>
       </c>
     </row>
-    <row r="13"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -695,7 +694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="H4:K5"/>
@@ -703,9 +702,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>마음</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
+        <is>
+          <t>밥</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>

--- a/Coding/item.xlsx
+++ b/Coding/item.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -682,6 +682,7 @@
         </is>
       </c>
     </row>
+    <row r="13"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -694,7 +695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="H4:K5"/>
@@ -712,11 +713,6 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>밥</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>갑오징어</t>
         </is>
       </c>
